--- a/data/income_statement/2digits/size/63_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/63_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>63-Information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>63-Information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,98 +841,113 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>349539.72846</v>
+        <v>332584.42457</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>270411.49752</v>
+        <v>250299.43355</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>443365.19562</v>
+        <v>420958.92864</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>439964.57124</v>
+        <v>416746.45492</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>327794.19789</v>
+        <v>286373.65369</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>373070.60184</v>
+        <v>347633.52526</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>610410.5485799999</v>
+        <v>578467.58548</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>879606.9135799999</v>
+        <v>838149.11143</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1001340.76346</v>
+        <v>955394.88614</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2744303.12101</v>
+        <v>2706129.81995</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4428949.1172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4332665.82412</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4401171.562</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>310117.37027</v>
+        <v>293961.58341</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>234710.66497</v>
+        <v>215720.04555</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>396726.83856</v>
+        <v>374320.57158</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>394511.0541</v>
+        <v>371292.93778</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>284759.88807</v>
+        <v>249145.29167</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>320780.37512</v>
+        <v>301420.36459</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>545666.40397</v>
+        <v>519847.81297</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>791929.5071099999</v>
+        <v>756541.29023</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>910473.83745</v>
+        <v>871349.04718</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2650405.82419</v>
+        <v>2612235.42407</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3226884.75745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3132919.8119</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3650123.16</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>37179.22179</v>
+        <v>36382.64438</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>33010.18010000001</v>
+        <v>32059.32982</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>42660.03191</v>
@@ -1040,37 +956,42 @@
         <v>41652.55615999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>41332.46246</v>
+        <v>36139.62449</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>51059.24544</v>
+        <v>45817.85913</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>63015.36829999999</v>
+        <v>57599.59756999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>72325.13092</v>
+        <v>66797.56256999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>78671.55658000002</v>
+        <v>73609.95977000002</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>77965.14713</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1174641.75265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1174630.79085</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>731306.74</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>2243.1364</v>
+        <v>2240.19678</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2690.65245</v>
+        <v>2520.05818</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>3978.32515</v>
@@ -1079,76 +1000,86 @@
         <v>3800.96098</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1701.84736</v>
+        <v>1088.73753</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1230.98128</v>
+        <v>395.30154</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1728.77631</v>
+        <v>1020.17494</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15352.27555</v>
+        <v>14810.25863</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>12195.36943</v>
+        <v>10435.87919</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>15932.14969</v>
+        <v>15929.24875</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>27422.6071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>25115.22137</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19741.662</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7762.289789999999</v>
+        <v>7257.28887</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1320.71489</v>
+        <v>437.15285</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>7989.217529999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>14801.69445</v>
+        <v>14761.55958</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16054.61601</v>
+        <v>3634.554059999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10292.61372</v>
+        <v>5729.05879</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15495.93806</v>
+        <v>13380.21063</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>24298.34876</v>
+        <v>21669.02101</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16613.03972</v>
+        <v>12325.4341</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>102952.729</v>
+        <v>100437.89584</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>140326.4551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>136380.49709</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>114955.014</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7515.625619999999</v>
+        <v>7211.410400000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>999.1089499999999</v>
+        <v>392.44224</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>7336.13444</v>
@@ -1157,58 +1088,63 @@
         <v>11466.64402</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15975.49288</v>
+        <v>3634.554059999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10124.99178</v>
+        <v>5606.05647</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>14835.32037</v>
+        <v>12749.37927</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>19013.91223</v>
+        <v>16406.74751</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11869.32536</v>
+        <v>7596.55122</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>102162.06812</v>
+        <v>99647.23495999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>140152.99156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>136207.03355</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>109958.593</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>246.66417</v>
+        <v>45.87847</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>321.60594</v>
+        <v>44.71061</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>653.08309</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3335.05043</v>
+        <v>3294.91556</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>79.12313</v>
+        <v>0</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>157.58796</v>
+        <v>112.96834</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>34.15741999999999</v>
+        <v>4.371090000000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5284.133610000001</v>
+        <v>5261.97058</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>4498.51146</v>
+        <v>4483.679980000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>469.7064</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0.383</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>4562.486</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,98 +1196,113 @@
       <c r="M12" s="48" t="n">
         <v>173.08054</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>433.935</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>341777.43867</v>
+        <v>325327.1357</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>269090.78263</v>
+        <v>249862.2807</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>435375.97809</v>
+        <v>412969.71111</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>425162.87679</v>
+        <v>401984.89534</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>311739.58188</v>
+        <v>282739.09963</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>362777.98812</v>
+        <v>341904.46647</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>594914.61052</v>
+        <v>565087.37485</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>855308.56482</v>
+        <v>816480.0904199999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>984727.72374</v>
+        <v>943069.45204</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2641350.39201</v>
+        <v>2605691.92411</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4288622.6621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4196285.32703</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4286216.548</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>301945.23231</v>
+        <v>292656.44877</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>240108.33236</v>
+        <v>228841.81497</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>351724.15143</v>
+        <v>351564.34367</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>356586.75658</v>
+        <v>355099.23906</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>324359.19623</v>
+        <v>298776.87104</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>398241.97681</v>
+        <v>380337.74806</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>622821.3324099999</v>
+        <v>600160.69712</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>809035.13854</v>
+        <v>781396.36272</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>978859.6118300001</v>
+        <v>933542.76702</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1771860.75702</v>
+        <v>1737413.21655</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2186996.748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2133960.2825</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2269829.628</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>33122.01122</v>
+        <v>32968.38099</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>34019.61968</v>
+        <v>33879.95224</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>37252.61861</v>
+        <v>37252.4392</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>26585.53149</v>
@@ -1372,56 +1328,66 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>5509.31707</v>
+        <v>5303.432710000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3436.4909</v>
+        <v>3235.99876</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2315.22512</v>
+        <v>2155.59677</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3066.33944</v>
+        <v>1578.82192</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>299.1883</v>
+        <v>69.60444</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>674.67985</v>
+        <v>434.47756</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>379.17231</v>
+        <v>120.29958</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3909.11565</v>
+        <v>3654.27252</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>8733.524820000001</v>
+        <v>8455.66714</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>984452.25099</v>
+        <v>955626.57326</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1265552.67635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1242838.54712</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1501020.819</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>263313.90402</v>
+        <v>254384.63507</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>202652.22178</v>
+        <v>191725.86397</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>312156.3077</v>
@@ -1430,31 +1396,36 @@
         <v>326934.88565</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>301763.12383</v>
+        <v>276410.3825</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>371294.71174</v>
+        <v>353630.68528</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>604993.8909700001</v>
+        <v>582592.12841</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>790284.7092899999</v>
+        <v>762900.7766</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>941973.58244</v>
+        <v>896934.5953099999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>787236.86928</v>
+        <v>781615.00654</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>909101.38977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>878779.0535</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>756916.295</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>12342.68188</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>11892.514</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>39832.20636</v>
+        <v>32670.68693</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>28982.45027</v>
+        <v>21020.46573</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>83651.82666000001</v>
+        <v>61405.36744</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>68576.12020999999</v>
+        <v>46885.65628</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>-12619.61435</v>
+        <v>-16037.77141</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>-35463.98869</v>
+        <v>-38433.28159</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>-27906.72189</v>
+        <v>-35073.32227</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>46273.42628</v>
+        <v>35083.72770000002</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5868.111909999996</v>
+        <v>9526.685019999995</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>869489.63499</v>
+        <v>868278.7075599999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2101625.9141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2062325.04453</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2016386.92</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>25380.77091</v>
+        <v>21459.52608</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>21540.69026</v>
+        <v>16918.56714</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>65188.34954</v>
+        <v>44878.41758</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>72419.40906000001</v>
+        <v>50047.1932</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>75291.91726</v>
+        <v>67892.29904</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>103314.21885</v>
+        <v>90115.27738</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>135446.50702</v>
+        <v>113602.89219</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>232765.93716</v>
+        <v>212828.06727</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>252620.97593</v>
+        <v>226770.73501</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>613170.43946</v>
+        <v>592977.5892200001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1455231.93295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1420001.14301</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1248250.879</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>88.43886999999999</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>31219.20819</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>44165.505</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7988.48085</v>
+        <v>6534.89075</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4846.026349999999</v>
+        <v>3405.818960000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>31428.80395</v>
+        <v>22609.23333</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>33581.33371</v>
+        <v>23856.41785</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25442.31382</v>
+        <v>22288.6726</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>32851.90632</v>
+        <v>30978.10599</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>37674.31192</v>
+        <v>35413.07146</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>96502.43228000001</v>
+        <v>93848.48796000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>88047.60316999999</v>
+        <v>81935.03819999998</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>91465.38873000001</v>
+        <v>89929.72710999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>821084.9728000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>820573.4188999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>636900.501</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>17303.85119</v>
+        <v>14836.19646</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>16587.15453</v>
+        <v>13405.2388</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>33707.40403</v>
+        <v>22217.04269</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>38838.07535</v>
+        <v>26190.77535</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>49765.63145</v>
+        <v>45519.65445</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>68396.47304000001</v>
+        <v>57071.3319</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>92713.87909999999</v>
+        <v>73131.50473</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>131382.09791</v>
+        <v>114098.17234</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>158057.98458</v>
+        <v>138320.30863</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>510400.86566</v>
+        <v>491743.67704</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>602927.75196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>568208.5159199999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>567184.873</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>14451.43545</v>
+        <v>11211.16085</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7441.76001</v>
+        <v>4101.89859</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>18463.47712</v>
+        <v>16526.94986</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3843.288850000001</v>
+        <v>-3161.536919999998</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-87911.53161000002</v>
+        <v>-83930.07045</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-138778.20754</v>
+        <v>-128548.55897</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-163353.22891</v>
+        <v>-148676.21446</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-186492.51088</v>
+        <v>-177744.33957</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-246752.86402</v>
+        <v>-217244.04999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>256319.19553</v>
+        <v>275301.11834</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>646393.98115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>642323.90152</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>768136.041</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>31062.86253</v>
+        <v>30584.95258</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5783.1998</v>
+        <v>5381.51574</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>16869.94601</v>
+        <v>15378.23665</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>10877.17758</v>
+        <v>8793.64652</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>18515.17647</v>
+        <v>18077.69381</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>18153.52741</v>
+        <v>14928.05484</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>39575.19118</v>
+        <v>32631.48752</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>43863.83114</v>
+        <v>38483.6443</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>53155.158</v>
+        <v>42677.84262</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>220986.42217</v>
+        <v>190940.51319</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>152166.61501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>126917.27035</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>437666.017</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1500</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>11194.5</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>5.50737</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>982.33479</v>
+        <v>945.36276</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1018.77841</v>
+        <v>1012.09825</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2387.5503</v>
+        <v>919.5873800000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2474.67393</v>
+        <v>936.1638300000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2126.56381</v>
+        <v>2118.90913</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2620.03262</v>
+        <v>2542.82629</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4350.28694</v>
+        <v>4315.695769999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5002.73915</v>
+        <v>4999.79179</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>6666.83155</v>
+        <v>6666.43597</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30713.6254</v>
+        <v>30705.90825</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>45002.48481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>44965.81545999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41864.319</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.13</v>
@@ -1918,23 +1944,28 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>271.31368</v>
+        <v>235.14723</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>427.52736</v>
+        <v>382.30558</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>341.5799699999999</v>
+        <v>318.67209</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>379.69678</v>
+        <v>349.96064</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>567.8794099999999</v>
@@ -1946,7 +1977,7 @@
         <v>739.3945</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1467.36292</v>
+        <v>1074.42367</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>4308.31134</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>6914.653439999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>8645.712</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>111.23458</v>
@@ -1976,19 +2012,19 @@
         <v>214.37112</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>17.77459</v>
+        <v>17.75692</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>146.17759</v>
+        <v>146.13441</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>56.67111</v>
+        <v>55.99345</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>72.65372000000001</v>
+        <v>72.13798</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>246.61124</v>
+        <v>246.5778</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>76.27367</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>415.54365</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>79235.85799999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>29231.23234</v>
+        <v>28826.46092</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2903.62316</v>
+        <v>2553.93389</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>13226.76785</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>7331.36105</v>
+        <v>6816.47723</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>12581.92486</v>
+        <v>12152.11455</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>13659.85615</v>
+        <v>10511.63309</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>32940.94356</v>
+        <v>26051.58074</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>35465.50048</v>
+        <v>30481.71599</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>38740.5655</v>
+        <v>28264.94914</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>154982.1778</v>
+        <v>124943.98597</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>94301.14740999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>69505.54076999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>267711.594</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>92.90486999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,23 +2164,28 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>368.2049</v>
+        <v>368.20485</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1386.90877</v>
+        <v>1386.81592</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>350.74329</v>
+        <v>349.90473</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>442.90065</v>
+        <v>442.49965</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>3174.73291</v>
@@ -2138,64 +2194,74 @@
         <v>935.3363400000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1239.13528</v>
+        <v>1220.06327</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1705.32219</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2248.08848</v>
+        <v>2246.81848</v>
       </c>
       <c r="L35" s="48" t="n">
         <v>3578.63261</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4032.7857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3615.71703</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>29001.804</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>31722.78142</v>
+        <v>31046.23849</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3967.13165</v>
+        <v>3700.27908</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>15893.57554</v>
+        <v>15749.56578</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>8545.976699999999</v>
+        <v>8423.410689999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>18978.29866</v>
+        <v>18264.91704</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>16383.92868</v>
+        <v>14054.45578</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>45055.01209</v>
+        <v>40747.56739</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>42725.04751</v>
+        <v>38780.14262999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>42180.68273000001</v>
+        <v>36241.55583</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>146428.79117</v>
+        <v>123567.49691</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>101733.91025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>79022.15604</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>324513.201</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.39826</v>
@@ -2230,38 +2296,43 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>5.631</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1244.80985</v>
+        <v>1104.27263</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>639.69425</v>
+        <v>622.07938</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1040.12502</v>
+        <v>1014.43002</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>849.28361</v>
+        <v>847.85221</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1854.11153</v>
+        <v>1802.17488</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>1595.07845</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3452.14104</v>
+        <v>3171.46604</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5719.34821</v>
+        <v>3732.02781</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2683.41344</v>
+        <v>2514.10077</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>15555.68688</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>14899.35406</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>8839.25</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.90212</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>75210.13800000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>30204.43393</v>
+        <v>29668.42852</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2943.81117</v>
+        <v>2694.57384</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>14211.59336</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7317.16542</v>
+        <v>7301.00444</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>16467.10912</v>
+        <v>15805.66415</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>13806.43171</v>
+        <v>11476.95881</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>39238.38196</v>
+        <v>35211.61225999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>35996.51977</v>
+        <v>34063.93529</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>37014.02212</v>
+        <v>31244.20789</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>130351.92735</v>
+        <v>107490.63309</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>82910.3229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>60204.39317</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>240306.246</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>38.44292</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>12.2298</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,23 +2516,28 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>234.69646</v>
+        <v>234.69616</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>344.5617099999999</v>
+        <v>344.56134</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>494.79435</v>
+        <v>376.47959</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>138.90494</v>
+        <v>33.93131</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>35.28989</v>
@@ -2462,91 +2558,106 @@
         <v>521.1769400000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3912.00349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3906.17901</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>151.936</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2497.23823</v>
+        <v>1780.78552</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3132.09491</v>
+        <v>2547.39793</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2396.35902</v>
+        <v>2395.64221</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3839.52219</v>
+        <v>3200.40353</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4670.275279999999</v>
+        <v>1773.2882</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3802.06146</v>
+        <v>1626.41455</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4871.53034</v>
+        <v>2798.7942</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>30908.4276</v>
+        <v>27893.08555</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>11111.31725</v>
+        <v>5866.93212</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31393.55059</v>
+        <v>30160.02041</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>56614.8129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>51341.06911</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>42895.618</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2497.23823</v>
+        <v>1780.78552</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3132.09491</v>
+        <v>2547.39793</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2396.35902</v>
+        <v>2395.64221</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3839.52219</v>
+        <v>3200.40353</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4670.275279999999</v>
+        <v>1773.2882</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3802.06146</v>
+        <v>1626.41455</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4871.53034</v>
+        <v>2798.7942</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>30908.4276</v>
+        <v>27893.08555</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>11111.31725</v>
+        <v>5866.93212</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>31393.55059</v>
+        <v>30160.02041</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>56614.8129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>51341.06911</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>42895.618</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>11294.27833</v>
+        <v>8969.08942</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6125.73325</v>
+        <v>3235.73732</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>17043.48857</v>
+        <v>13759.97852</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-5351.61016</v>
+        <v>-5991.704619999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-93044.92908</v>
+        <v>-85890.58188</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-140810.67027</v>
+        <v>-129301.37446</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-173704.58016</v>
+        <v>-159591.08853</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-216262.15485</v>
+        <v>-205933.92345</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-246889.706</v>
+        <v>-216674.69532</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>299483.27594</v>
+        <v>312514.11421</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>640211.87301</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>638877.94672</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>838393.2389999999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2257.11476</v>
+        <v>989.2818500000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2403.92371</v>
+        <v>928.41323</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2927.97249</v>
+        <v>2926.85615</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47120.02893</v>
+        <v>46947.3806</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>115749.16608</v>
+        <v>115039.39253</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>154598.06721</v>
+        <v>154229.46033</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>178344.55882</v>
+        <v>177670.07742</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>212314.80421</v>
+        <v>212162.08564</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>244854.34455</v>
+        <v>244569.20427</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>252567.54337</v>
+        <v>251618.86459</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>325366.77873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>324214.8979</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>306069.416</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4.60817</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>665.4266700000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>8567.517</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2252.50659</v>
+        <v>984.6736800000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2394.97049</v>
+        <v>919.46001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2919.47249</v>
+        <v>2918.35615</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>46976.17131000001</v>
+        <v>46803.52297999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>114903.79127</v>
+        <v>114194.01772</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>154451.06721</v>
+        <v>154082.46033</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>178332.11463</v>
+        <v>177657.63323</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>212314.80421</v>
+        <v>212162.08564</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>244804.94121</v>
+        <v>244519.80093</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>252159.98657</v>
+        <v>251211.30779</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>324701.35206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>323549.47123</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>297501.899</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>718.4293600000001</v>
+        <v>695.03101</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1338.34728</v>
+        <v>1287.26034</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>4394.44804</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2951.66558</v>
+        <v>2944.2768</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3123.65106</v>
+        <v>2787.15587</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2684.3673</v>
+        <v>2397.42335</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4406.41727</v>
+        <v>4371.59374</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>16653.14088</v>
+        <v>10725.08923</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>24473.11769</v>
+        <v>23521.67638</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4763.02983</v>
+        <v>4601.868359999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>14994.22451</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>14080.79468</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>9531.398999999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>337.72447</v>
@@ -2831,7 +2977,7 @@
         <v>91.46089000000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>137.97079</v>
+        <v>135.49658</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>149.93571</v>
@@ -2846,7 +2992,7 @@
         <v>254.98538</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3205.22308</v>
+        <v>3195.26392</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>1048.57385</v>
@@ -2854,116 +3000,131 @@
       <c r="M53" s="48" t="n">
         <v>1063.95153</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>596.1609999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>380.70489</v>
+        <v>357.30654</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>886.42079</v>
+        <v>835.33385</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>4096.60428</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2046.98532</v>
+        <v>2042.07075</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1876.28353</v>
+        <v>1539.78834</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1824.53369</v>
+        <v>1537.58974</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2269.04553</v>
+        <v>2234.222</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>15029.18016</v>
+        <v>9101.12851</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>19929.3437</v>
+        <v>18987.86155</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3714.455980000001</v>
+        <v>3553.29451</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>13930.27298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>13016.84315</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8935.237999999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>12832.96373</v>
+        <v>9263.340259999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>7191.30968</v>
+        <v>2876.89021</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>15577.01302</v>
+        <v>12292.38663</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>38816.75319</v>
+        <v>38011.39918</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>19580.58594</v>
+        <v>26361.65478</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>11103.02964</v>
+        <v>22530.66252</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>233.5613899999997</v>
+        <v>13707.39515</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-20600.49152</v>
+        <v>-4496.92704</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-26508.47914</v>
+        <v>4372.83257</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>547287.78948</v>
+        <v>559531.1104400001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>950584.42723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>949012.0499399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1134931.256</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2789.20153</v>
+        <v>2418.79586</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1881.33424</v>
+        <v>1620.76377</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4608.592390000001</v>
+        <v>4212.48692</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>5238.14777</v>
+        <v>4998.57387</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>6312.31063</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4869.66901</v>
+        <v>4828.026640000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6017.58441</v>
+        <v>5058.33888</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3463.95251</v>
+        <v>3427.2384</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>6547.37762</v>
+        <v>6179.74131</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>117744.79419</v>
@@ -2971,47 +3132,55 @@
       <c r="M56" s="47" t="n">
         <v>206227.13954</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>223980.571</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>10043.7622</v>
+        <v>6844.5444</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5309.97544</v>
+        <v>1256.12644</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>10968.42063</v>
+        <v>8079.89971</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>33578.60542</v>
+        <v>33012.82531</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>13268.27531</v>
+        <v>20049.34415</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6233.36063</v>
+        <v>17702.63588</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-5784.02302</v>
+        <v>8649.056269999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-24064.44403</v>
+        <v>-7924.16544</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-33055.85676</v>
+        <v>-1806.90874</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>429542.9952899999</v>
+        <v>441786.31625</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>744357.2876899999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>742784.9103999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>910950.6850000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="G59" s="35" t="n">
+      <c r="M59" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>